--- a/data/trans_orig/P24C-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P24C-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>67222</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>55466</v>
+        <v>54929</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>80629</v>
+        <v>81201</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4433790248491864</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3658410328361977</v>
+        <v>0.3622999869095991</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5318109991121492</v>
+        <v>0.5355815510789612</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -764,19 +764,19 @@
         <v>36438</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27267</v>
+        <v>27113</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46189</v>
+        <v>45944</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3993357621659849</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2988235647581924</v>
+        <v>0.2971371710235397</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5061920232183789</v>
+        <v>0.5035104586083493</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>104</v>
@@ -785,19 +785,19 @@
         <v>103659</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>88620</v>
+        <v>87833</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>118760</v>
+        <v>119451</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4268311214135264</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3649053869093494</v>
+        <v>0.3616638299132391</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4890108825323921</v>
+        <v>0.4918572162034555</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>46075</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>35355</v>
+        <v>34150</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>58457</v>
+        <v>57944</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.303900287144214</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2331953250765224</v>
+        <v>0.2252450867933239</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.385571546828065</v>
+        <v>0.382184524618029</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>33</v>
@@ -835,19 +835,19 @@
         <v>34089</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>24721</v>
+        <v>25871</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>44148</v>
+        <v>44779</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3735894747809593</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2709197467465337</v>
+        <v>0.2835216803827727</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4838295484261803</v>
+        <v>0.4907414299693561</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>78</v>
@@ -856,19 +856,19 @@
         <v>80164</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>65901</v>
+        <v>64794</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>96409</v>
+        <v>94533</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3300838593245352</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2713581361215709</v>
+        <v>0.2667970248894763</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3969781519122004</v>
+        <v>0.3892515797204024</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>38315</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>28057</v>
+        <v>28623</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>49528</v>
+        <v>52217</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2527206880065996</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1850578408919257</v>
+        <v>0.1887897534552108</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3266764342669163</v>
+        <v>0.3444144771464451</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -906,19 +906,19 @@
         <v>20720</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13722</v>
+        <v>12914</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>30201</v>
+        <v>29771</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2270747630530557</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.150380982314205</v>
+        <v>0.1415306320748295</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3309804452947394</v>
+        <v>0.3262642233668745</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>54</v>
@@ -927,19 +927,19 @@
         <v>59035</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>46731</v>
+        <v>45475</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>74783</v>
+        <v>73887</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2430850192619385</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1924210613715105</v>
+        <v>0.1872483494184706</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3079284694142221</v>
+        <v>0.304240515918525</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>70351</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>57929</v>
+        <v>57698</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>82205</v>
+        <v>82767</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5204721483879658</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4285689769436459</v>
+        <v>0.4268587128542934</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6081711835942262</v>
+        <v>0.6123269707225946</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>56</v>
@@ -1052,19 +1052,19 @@
         <v>56428</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>45561</v>
+        <v>45284</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>68722</v>
+        <v>67440</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4242677526099989</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3425655290067478</v>
+        <v>0.3404783014935552</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5167101996395045</v>
+        <v>0.5070652819082496</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>124</v>
@@ -1073,19 +1073,19 @@
         <v>126779</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>110324</v>
+        <v>110555</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>142280</v>
+        <v>144318</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4727589800866268</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4113990693239085</v>
+        <v>0.4122607605200933</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.53056390110281</v>
+        <v>0.5381627296189331</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>43425</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>31975</v>
+        <v>32228</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>54532</v>
+        <v>55492</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3212699502113058</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2365597713431711</v>
+        <v>0.2384259977905462</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4034354903984709</v>
+        <v>0.4105424314135223</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>49</v>
@@ -1123,19 +1123,19 @@
         <v>49880</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>38477</v>
+        <v>39477</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>61711</v>
+        <v>60856</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3750379027147963</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2893018208272994</v>
+        <v>0.2968159438486496</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4639950835129994</v>
+        <v>0.4575650069238558</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>88</v>
@@ -1144,19 +1144,19 @@
         <v>93305</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>78876</v>
+        <v>77769</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>111377</v>
+        <v>109401</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3479365005936635</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.294128901448927</v>
+        <v>0.2900002549150966</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4153270165925039</v>
+        <v>0.4079574824675865</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>21391</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13385</v>
+        <v>13561</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30821</v>
+        <v>31099</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1582579014007284</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09902330557303948</v>
+        <v>0.100324473968155</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2280201511444428</v>
+        <v>0.2300775325619884</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -1194,19 +1194,19 @@
         <v>26692</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17271</v>
+        <v>18154</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36698</v>
+        <v>37409</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2006943446752048</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1298537206204543</v>
+        <v>0.136496701595857</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2759219799291254</v>
+        <v>0.2812687878097845</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>47</v>
@@ -1215,19 +1215,19 @@
         <v>48084</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36512</v>
+        <v>36520</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>61428</v>
+        <v>62880</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1793045193197096</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1361518465790187</v>
+        <v>0.1361850696110065</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2290653377717256</v>
+        <v>0.2344811435628855</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>90088</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>75052</v>
+        <v>75686</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>105581</v>
+        <v>105419</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3532588093301424</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2942956729777831</v>
+        <v>0.296782593150167</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4140083170803738</v>
+        <v>0.4133720796624342</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>21</v>
@@ -1340,19 +1340,19 @@
         <v>20943</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13988</v>
+        <v>14076</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>27364</v>
+        <v>27795</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4532909903281127</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3027603042919937</v>
+        <v>0.3046638562706305</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5922603708882046</v>
+        <v>0.6015931911237693</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>112</v>
@@ -1361,19 +1361,19 @@
         <v>111032</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>95747</v>
+        <v>94696</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>128276</v>
+        <v>128076</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3686021545792096</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3178581266565501</v>
+        <v>0.3143698741481935</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4258472060306055</v>
+        <v>0.4251839811605988</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>107284</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>90180</v>
+        <v>91030</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>124274</v>
+        <v>124627</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4206866321772346</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3536169303327505</v>
+        <v>0.3569511866855264</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4873107542377015</v>
+        <v>0.4886935767997913</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -1411,19 +1411,19 @@
         <v>14551</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8850</v>
+        <v>8660</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21409</v>
+        <v>21201</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.314940143990912</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1915488054576566</v>
+        <v>0.1874290723585292</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4633713404824414</v>
+        <v>0.4588696475601074</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>116</v>
@@ -1432,19 +1432,19 @@
         <v>121836</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>105537</v>
+        <v>104189</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>138494</v>
+        <v>139677</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4044668031089063</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3503609663854945</v>
+        <v>0.3458847894952539</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4597705094218887</v>
+        <v>0.4636978693331263</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>57649</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>44103</v>
+        <v>44057</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>70814</v>
+        <v>70235</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.226054558492623</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1729387426072803</v>
+        <v>0.1727601123723232</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2776781669394773</v>
+        <v>0.2754102239886417</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -1482,19 +1482,19 @@
         <v>10708</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5745</v>
+        <v>5266</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17579</v>
+        <v>16811</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2317688656809753</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1243399582017051</v>
+        <v>0.1139735651821273</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3804823842133984</v>
+        <v>0.3638504689485244</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>68</v>
@@ -1503,19 +1503,19 @@
         <v>68357</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>54588</v>
+        <v>54874</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>83093</v>
+        <v>84360</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2269310423118841</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1812208127299764</v>
+        <v>0.1821704471807304</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2758511186127438</v>
+        <v>0.2800555208854861</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>244306</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>221076</v>
+        <v>223186</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>267553</v>
+        <v>269417</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4326472833292951</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3915075224868996</v>
+        <v>0.3952450356674787</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.473814920439134</v>
+        <v>0.477117003364577</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>83</v>
@@ -1628,19 +1628,19 @@
         <v>84495</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>71476</v>
+        <v>70297</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>101541</v>
+        <v>99972</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3504636539075227</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2964632808379437</v>
+        <v>0.291573003366235</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4211662414753149</v>
+        <v>0.4146573738705948</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>324</v>
@@ -1649,19 +1649,19 @@
         <v>328802</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>300410</v>
+        <v>301374</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>359555</v>
+        <v>357472</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4080571234210095</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3728214484314544</v>
+        <v>0.3740183049261048</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4462230871700569</v>
+        <v>0.4436385546674232</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>210901</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>187960</v>
+        <v>188613</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>235399</v>
+        <v>234413</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3734893135756063</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3328630638641055</v>
+        <v>0.3340194941638447</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4168733835923685</v>
+        <v>0.4151273922086696</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>100</v>
@@ -1699,19 +1699,19 @@
         <v>104057</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>88999</v>
+        <v>89575</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>118504</v>
+        <v>119543</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4315989483461973</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3691420875106156</v>
+        <v>0.3715341030708503</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4915233946411687</v>
+        <v>0.4958319150296571</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>304</v>
@@ -1720,19 +1720,19 @@
         <v>314958</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>287484</v>
+        <v>288607</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>345388</v>
+        <v>342717</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3908762946723836</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3567796034917288</v>
+        <v>0.3581733107923631</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4286413191069814</v>
+        <v>0.4253264028455369</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>109470</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>91419</v>
+        <v>91048</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>129515</v>
+        <v>128000</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1938634030950986</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1618961068866005</v>
+        <v>0.1612383889359024</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2293612802810365</v>
+        <v>0.2266773827136963</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>51</v>
@@ -1770,19 +1770,19 @@
         <v>52544</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>40330</v>
+        <v>40711</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>65818</v>
+        <v>65696</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.21793739774628</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.167276514660293</v>
+        <v>0.1688583281425754</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2729969502963311</v>
+        <v>0.2724907766402002</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>157</v>
@@ -1791,19 +1791,19 @@
         <v>162014</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>140715</v>
+        <v>137896</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>185915</v>
+        <v>185067</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2010665819066069</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1746331950887899</v>
+        <v>0.1711348537367354</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2307288790341162</v>
+        <v>0.2296762999942349</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>75352</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>62817</v>
+        <v>62649</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>89663</v>
+        <v>89349</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4057048026758424</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3382130269306534</v>
+        <v>0.3373101538189384</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4827565317077492</v>
+        <v>0.4810654532823548</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>66</v>
@@ -1916,19 +1916,19 @@
         <v>70109</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>57615</v>
+        <v>57197</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>84947</v>
+        <v>83561</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.388390146825288</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3191725220958434</v>
+        <v>0.3168591357204472</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4705883071337275</v>
+        <v>0.4629082888486517</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>140</v>
@@ -1937,19 +1937,19 @@
         <v>145462</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>127322</v>
+        <v>127794</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>163785</v>
+        <v>165512</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.39717083949304</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3476395547164016</v>
+        <v>0.3489292353898507</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4471998294719255</v>
+        <v>0.4519149830879071</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>71171</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>57543</v>
+        <v>58003</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>85070</v>
+        <v>85192</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3831936936222038</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3098179954025397</v>
+        <v>0.3122960292274656</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4580245619463035</v>
+        <v>0.4586802146548937</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>72</v>
@@ -1987,19 +1987,19 @@
         <v>74313</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>60623</v>
+        <v>60926</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>88414</v>
+        <v>88167</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4116746629097203</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3358390848253769</v>
+        <v>0.3375184622452774</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4897912418663133</v>
+        <v>0.4884248638527022</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>140</v>
@@ -2008,19 +2008,19 @@
         <v>145484</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>127117</v>
+        <v>126111</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>165460</v>
+        <v>164955</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3972312549464394</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3470813025004388</v>
+        <v>0.344334562751564</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4517718858655532</v>
+        <v>0.4503941963987234</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>39208</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28650</v>
+        <v>28997</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>51362</v>
+        <v>51954</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2111015037019538</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1542537174131183</v>
+        <v>0.1561239997267969</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2765394599186897</v>
+        <v>0.2797229958984798</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>34</v>
@@ -2058,19 +2058,19 @@
         <v>36091</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>26359</v>
+        <v>26092</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>48478</v>
+        <v>48768</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1999351902649917</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1460247543331292</v>
+        <v>0.1445418770894788</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2685580794984732</v>
+        <v>0.270161399828133</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>71</v>
@@ -2079,19 +2079,19 @@
         <v>75299</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>59998</v>
+        <v>61619</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>90562</v>
+        <v>92464</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2055979055605206</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1638190068491135</v>
+        <v>0.1682461787232503</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2472722320746547</v>
+        <v>0.2524647701922824</v>
       </c>
     </row>
     <row r="23">
@@ -2183,19 +2183,19 @@
         <v>52559</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>42712</v>
+        <v>41623</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>61368</v>
+        <v>60571</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5992743248477126</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4869916247602809</v>
+        <v>0.4745764223929878</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6997063588609884</v>
+        <v>0.6906242061779433</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>83</v>
@@ -2204,19 +2204,19 @@
         <v>79798</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>67714</v>
+        <v>66363</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>92840</v>
+        <v>92512</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4717030217556241</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4002674739308498</v>
+        <v>0.3922808063283335</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5487951420946817</v>
+        <v>0.5468551029870823</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>136</v>
@@ -2225,19 +2225,19 @@
         <v>132358</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>117553</v>
+        <v>115605</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>148268</v>
+        <v>146843</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5152597496798431</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4576248339454105</v>
+        <v>0.4500420539102751</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5771962269701524</v>
+        <v>0.5716482069469909</v>
       </c>
     </row>
     <row r="25">
@@ -2254,19 +2254,19 @@
         <v>29789</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21867</v>
+        <v>22225</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>39539</v>
+        <v>39905</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3396450549348939</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2493242543020434</v>
+        <v>0.2534059089401521</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4508214905335883</v>
+        <v>0.4549936160068298</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>68</v>
@@ -2275,19 +2275,19 @@
         <v>68969</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>56451</v>
+        <v>56271</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>82228</v>
+        <v>82107</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4076857383214362</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3336936444805053</v>
+        <v>0.3326302498484688</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4860650132370226</v>
+        <v>0.4853464342291418</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>98</v>
@@ -2296,19 +2296,19 @@
         <v>98757</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>82949</v>
+        <v>83978</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>114180</v>
+        <v>114479</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3844545769065039</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3229139814223616</v>
+        <v>0.3269217756978898</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4444943921428767</v>
+        <v>0.4456579157803159</v>
       </c>
     </row>
     <row r="26">
@@ -2325,19 +2325,19 @@
         <v>5357</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1819</v>
+        <v>1902</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11715</v>
+        <v>11504</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.06108062021739349</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02074047198057376</v>
+        <v>0.02168438341769054</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1335704679865702</v>
+        <v>0.1311720030062017</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>21</v>
@@ -2346,19 +2346,19 @@
         <v>20404</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>13330</v>
+        <v>12567</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>30082</v>
+        <v>28979</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1206112399229398</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07879594285586539</v>
+        <v>0.07428294355233399</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.177822729234816</v>
+        <v>0.1713026025948161</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>26</v>
@@ -2367,19 +2367,19 @@
         <v>25761</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>17091</v>
+        <v>17757</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>36150</v>
+        <v>37300</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.100285673413653</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06653267597946037</v>
+        <v>0.06912750857296246</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1407287099534141</v>
+        <v>0.1452051651550836</v>
       </c>
     </row>
     <row r="27">
@@ -2471,19 +2471,19 @@
         <v>599880</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>561988</v>
+        <v>563113</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>636632</v>
+        <v>639030</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4347216324113736</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4072616353712339</v>
+        <v>0.4080770976312543</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4613547392410095</v>
+        <v>0.4630924585288065</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>345</v>
@@ -2492,19 +2492,19 @@
         <v>348212</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>318374</v>
+        <v>321718</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>378445</v>
+        <v>377426</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4043200232683451</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3696735962679074</v>
+        <v>0.3735564691315401</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4394239544682835</v>
+        <v>0.4382413134738111</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>940</v>
@@ -2513,19 +2513,19 @@
         <v>948092</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>903198</v>
+        <v>896428</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>996848</v>
+        <v>996158</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4230388865790477</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.403007031308144</v>
+        <v>0.3999860647353183</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4447936911063148</v>
+        <v>0.444485937078152</v>
       </c>
     </row>
     <row r="29">
@@ -2542,19 +2542,19 @@
         <v>508646</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>473254</v>
+        <v>471403</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>546749</v>
+        <v>547705</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3686060556534934</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3429583723545958</v>
+        <v>0.3416165156237925</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3962182447874055</v>
+        <v>0.3969109750178373</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>336</v>
@@ -2563,19 +2563,19 @@
         <v>345858</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>316575</v>
+        <v>317564</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>375945</v>
+        <v>374354</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4015862940662036</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3675851301273269</v>
+        <v>0.3687339519851365</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4365214079381829</v>
+        <v>0.4346740955451401</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>824</v>
@@ -2584,19 +2584,19 @@
         <v>854504</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>809013</v>
+        <v>805754</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>902262</v>
+        <v>903270</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3812797184537915</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3609818858723193</v>
+        <v>0.3595275955671058</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4025893357544311</v>
+        <v>0.4030393602688349</v>
       </c>
     </row>
     <row r="30">
@@ -2613,19 +2613,19 @@
         <v>271392</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>244707</v>
+        <v>243520</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>303310</v>
+        <v>303155</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1966723119351331</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1773341073725114</v>
+        <v>0.1764743981597318</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2198029655876415</v>
+        <v>0.2196904842547376</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>162</v>
@@ -2634,19 +2634,19 @@
         <v>167159</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>144323</v>
+        <v>144791</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>190745</v>
+        <v>191910</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1940936826654513</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1675784024270895</v>
+        <v>0.1681217419819493</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2214798228063959</v>
+        <v>0.2228332915761322</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>423</v>
@@ -2655,19 +2655,19 @@
         <v>438551</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>404748</v>
+        <v>401742</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>479908</v>
+        <v>477750</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1956813949671608</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1805984317166435</v>
+        <v>0.1792575302295005</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2141349579116748</v>
+        <v>0.2131721658828921</v>
       </c>
     </row>
     <row r="31">
@@ -3001,19 +3001,19 @@
         <v>35640</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24754</v>
+        <v>25102</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47799</v>
+        <v>48709</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2418882889932978</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1680093617523422</v>
+        <v>0.1703701468110066</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3244136811980579</v>
+        <v>0.3305895250416362</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -3022,19 +3022,19 @@
         <v>19936</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12484</v>
+        <v>12246</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30562</v>
+        <v>28849</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2016203838705786</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1262563393894639</v>
+        <v>0.1238459505288474</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3090892681571153</v>
+        <v>0.2917581463392253</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>49</v>
@@ -3043,19 +3043,19 @@
         <v>55576</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>42816</v>
+        <v>43065</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>71040</v>
+        <v>71103</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2257170370104022</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.173893201273262</v>
+        <v>0.1749075424274029</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2885263834723967</v>
+        <v>0.2887795775403457</v>
       </c>
     </row>
     <row r="5">
@@ -3072,19 +3072,19 @@
         <v>62186</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>49767</v>
+        <v>50882</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>75218</v>
+        <v>74865</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4220616861205772</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3377699163038629</v>
+        <v>0.3453421474553964</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.51051297921212</v>
+        <v>0.5081113678707704</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>38</v>
@@ -3093,19 +3093,19 @@
         <v>41710</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>31447</v>
+        <v>31684</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>51974</v>
+        <v>52523</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4218313492345011</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3180316129210164</v>
+        <v>0.3204360381604135</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5256347906257379</v>
+        <v>0.5311853445124702</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>98</v>
@@ -3114,19 +3114,19 @@
         <v>103896</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>87436</v>
+        <v>86757</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>120120</v>
+        <v>120163</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4219691847646129</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.355114636095265</v>
+        <v>0.3523572888765101</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4878608653443257</v>
+        <v>0.4880342771827713</v>
       </c>
     </row>
     <row r="6">
@@ -3143,19 +3143,19 @@
         <v>49513</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38987</v>
+        <v>37175</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>63190</v>
+        <v>61404</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3360500248861251</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2646053026035073</v>
+        <v>0.2523074914666819</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4288758180523082</v>
+        <v>0.4167529749910601</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>34</v>
@@ -3164,19 +3164,19 @@
         <v>37233</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>27465</v>
+        <v>28045</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>47360</v>
+        <v>49478</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3765482668949203</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2777647850705414</v>
+        <v>0.2836255775475177</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4789657557648954</v>
+        <v>0.5003867572092296</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>80</v>
@@ -3185,19 +3185,19 @@
         <v>86746</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>71219</v>
+        <v>72347</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>101836</v>
+        <v>104231</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3523137782249849</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2892533110658835</v>
+        <v>0.2938324085881613</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4135999769078745</v>
+        <v>0.423327289145187</v>
       </c>
     </row>
     <row r="7">
@@ -3289,19 +3289,19 @@
         <v>27394</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>18504</v>
+        <v>18827</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>38077</v>
+        <v>38225</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1831927683248104</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1237412971480223</v>
+        <v>0.1258984150781336</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2546288893702121</v>
+        <v>0.2556199614740995</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -3310,19 +3310,19 @@
         <v>17002</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9981</v>
+        <v>10108</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>27096</v>
+        <v>26271</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.135258514012178</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07940219984225415</v>
+        <v>0.08041198524162216</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2155662352356274</v>
+        <v>0.2090030637560054</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>42</v>
@@ -3331,19 +3331,19 @@
         <v>44396</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>33779</v>
+        <v>32652</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>60383</v>
+        <v>57297</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1613017486048895</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1227255883740044</v>
+        <v>0.1186309237938138</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2193858022483011</v>
+        <v>0.2081727731239741</v>
       </c>
     </row>
     <row r="9">
@@ -3360,19 +3360,19 @@
         <v>58226</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>45998</v>
+        <v>46199</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>73078</v>
+        <v>71490</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3893683440251172</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3076001632367467</v>
+        <v>0.3089425926780102</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4886914106047389</v>
+        <v>0.478069474035176</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>47</v>
@@ -3381,19 +3381,19 @@
         <v>52419</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>41478</v>
+        <v>41560</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>65527</v>
+        <v>65098</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4170274859522236</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3299856358427952</v>
+        <v>0.3306398822263122</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.521312237579154</v>
+        <v>0.5178967331988915</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>101</v>
@@ -3402,19 +3402,19 @@
         <v>110645</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>92789</v>
+        <v>93371</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>127827</v>
+        <v>128602</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4019999543431442</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3371261660053388</v>
+        <v>0.339239084702014</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4644260325536834</v>
+        <v>0.467243930465167</v>
       </c>
     </row>
     <row r="10">
@@ -3431,19 +3431,19 @@
         <v>63919</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>49808</v>
+        <v>51576</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>76942</v>
+        <v>77842</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4274388876500724</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3330752354254888</v>
+        <v>0.344897677332523</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5145270485591908</v>
+        <v>0.5205439429655642</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -3452,19 +3452,19 @@
         <v>56276</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>45002</v>
+        <v>42966</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>68946</v>
+        <v>67431</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4477140000355984</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3580193642519934</v>
+        <v>0.341822706813294</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.548512823286206</v>
+        <v>0.5364558241619737</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>101</v>
@@ -3473,19 +3473,19 @@
         <v>120195</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>101768</v>
+        <v>103026</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>139194</v>
+        <v>138419</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4366982970519663</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3697466322685195</v>
+        <v>0.3743186054154715</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5057252973924912</v>
+        <v>0.5029084319115511</v>
       </c>
     </row>
     <row r="11">
@@ -3577,19 +3577,19 @@
         <v>32498</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>22891</v>
+        <v>22389</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>43629</v>
+        <v>44338</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1199404740178851</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08448456266867091</v>
+        <v>0.08263119335917905</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1610231612300857</v>
+        <v>0.1636401536288502</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -3598,19 +3598,19 @@
         <v>11124</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6057</v>
+        <v>5935</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20038</v>
+        <v>18277</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1319832580690075</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07187341289137275</v>
+        <v>0.07042080590808392</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.237750913378337</v>
+        <v>0.2168647795280622</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>43</v>
@@ -3619,19 +3619,19 @@
         <v>43621</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>32554</v>
+        <v>31981</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>57559</v>
+        <v>57126</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1227976735264917</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09164353255870182</v>
+        <v>0.09002804543999435</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1620326259382815</v>
+        <v>0.1608153065970342</v>
       </c>
     </row>
     <row r="13">
@@ -3648,19 +3648,19 @@
         <v>130528</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>113584</v>
+        <v>114495</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>146902</v>
+        <v>149901</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4817445037597807</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4192062176987298</v>
+        <v>0.4225695985450132</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5421760416749719</v>
+        <v>0.5532460275997985</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>44</v>
@@ -3669,19 +3669,19 @@
         <v>46580</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36725</v>
+        <v>37079</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>55763</v>
+        <v>55216</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5526781760422939</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4357525696205275</v>
+        <v>0.4399510646922284</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6616339956790616</v>
+        <v>0.6551509330114912</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>168</v>
@@ -3690,19 +3690,19 @@
         <v>177108</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>156691</v>
+        <v>156903</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>196092</v>
+        <v>195432</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4985738060813121</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4410973922320842</v>
+        <v>0.4416941507488257</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5520162542798859</v>
+        <v>0.5501585320421555</v>
       </c>
     </row>
     <row r="14">
@@ -3719,19 +3719,19 @@
         <v>107923</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>91468</v>
+        <v>92287</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>124543</v>
+        <v>124893</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3983150222223342</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3375821766014135</v>
+        <v>0.3406082658124622</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4596537750641746</v>
+        <v>0.4609468878287288</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>25</v>
@@ -3740,19 +3740,19 @@
         <v>26577</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18061</v>
+        <v>18976</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35521</v>
+        <v>36452</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3153385658886986</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2142968284231745</v>
+        <v>0.2251492574065047</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4214590288637665</v>
+        <v>0.432508194589078</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>123</v>
@@ -3761,19 +3761,19 @@
         <v>134500</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>113106</v>
+        <v>115738</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>152314</v>
+        <v>153405</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3786285203921962</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3184024109496328</v>
+        <v>0.3258128606132989</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4287778065470025</v>
+        <v>0.4318491900686637</v>
       </c>
     </row>
     <row r="15">
@@ -3865,19 +3865,19 @@
         <v>78225</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>61875</v>
+        <v>62367</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>96228</v>
+        <v>99176</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1576008817682964</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1246611721512548</v>
+        <v>0.1256505709608216</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1938719427083916</v>
+        <v>0.1998106949693854</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -3886,19 +3886,19 @@
         <v>30389</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21466</v>
+        <v>19757</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42827</v>
+        <v>41387</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1066610455060904</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07534088955807605</v>
+        <v>0.06934227868974895</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1503146495330713</v>
+        <v>0.1452618665961197</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>103</v>
@@ -3907,19 +3907,19 @@
         <v>108614</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>90063</v>
+        <v>90606</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>130026</v>
+        <v>128589</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1390238599627805</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1152783692322763</v>
+        <v>0.115973117224169</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1664297040818108</v>
+        <v>0.1645908730827895</v>
       </c>
     </row>
     <row r="17">
@@ -3936,19 +3936,19 @@
         <v>231431</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>207911</v>
+        <v>209957</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>252983</v>
+        <v>256996</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4662671670314865</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4188810043158981</v>
+        <v>0.4230025633646424</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5096876584825163</v>
+        <v>0.5177735251955762</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>124</v>
@@ -3957,19 +3957,19 @@
         <v>134164</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>116883</v>
+        <v>115762</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>150969</v>
+        <v>151917</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4708885482998668</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4102360082068744</v>
+        <v>0.4063025558031145</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5298719658320125</v>
+        <v>0.5332009200085465</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>339</v>
@@ -3978,19 +3978,19 @@
         <v>365595</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>335561</v>
+        <v>338501</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>393591</v>
+        <v>395225</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4679525179649365</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4295095908345022</v>
+        <v>0.4332723747258798</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5037868486857241</v>
+        <v>0.505878445139375</v>
       </c>
     </row>
     <row r="18">
@@ -4007,19 +4007,19 @@
         <v>186693</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>164664</v>
+        <v>164487</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>209632</v>
+        <v>207658</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3761319512002171</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.331749635271008</v>
+        <v>0.3313943197458833</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4223478462489851</v>
+        <v>0.4183701062629852</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>109</v>
@@ -4028,19 +4028,19 @@
         <v>120363</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>102525</v>
+        <v>104425</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>137604</v>
+        <v>139840</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4224504061940428</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3598439129534734</v>
+        <v>0.3665099514008135</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.482962363044106</v>
+        <v>0.4908107676511699</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>283</v>
@@ -4049,19 +4049,19 @@
         <v>307056</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>277630</v>
+        <v>278530</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>336383</v>
+        <v>334720</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.393023622072283</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3553592525454028</v>
+        <v>0.3565110224695626</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4305619566985477</v>
+        <v>0.4284331244554113</v>
       </c>
     </row>
     <row r="19">
@@ -4153,19 +4153,19 @@
         <v>42640</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>31029</v>
+        <v>32321</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>53843</v>
+        <v>54700</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1960613007460611</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1426723855850358</v>
+        <v>0.1486122682470619</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2475752583362804</v>
+        <v>0.2515134532446481</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>23</v>
@@ -4174,19 +4174,19 @@
         <v>25612</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>16258</v>
+        <v>16173</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>36157</v>
+        <v>36170</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1188801334664383</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07546215402727173</v>
+        <v>0.07506587612845361</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1678218290226807</v>
+        <v>0.1678849586738329</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>64</v>
@@ -4195,19 +4195,19 @@
         <v>68252</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>54012</v>
+        <v>54955</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>84302</v>
+        <v>86192</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1576523250368158</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1247599139468395</v>
+        <v>0.1269385760011698</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1947257048498709</v>
+        <v>0.1990902752620614</v>
       </c>
     </row>
     <row r="21">
@@ -4224,19 +4224,19 @@
         <v>107743</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>92044</v>
+        <v>93654</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>121573</v>
+        <v>122541</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4954110553604999</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4232218851853023</v>
+        <v>0.4306251412587415</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5590018255923435</v>
+        <v>0.5634509212310378</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>105</v>
@@ -4245,19 +4245,19 @@
         <v>115987</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>101555</v>
+        <v>101890</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>131390</v>
+        <v>132681</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5383590883398737</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4713727981087008</v>
+        <v>0.4729269095561908</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6098530103429026</v>
+        <v>0.6158419453332452</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>209</v>
@@ -4266,19 +4266,19 @@
         <v>223731</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>202441</v>
+        <v>202921</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>245485</v>
+        <v>245704</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5167840147702516</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4676082731067024</v>
+        <v>0.468717160446024</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5670326283598642</v>
+        <v>0.5675385263255847</v>
       </c>
     </row>
     <row r="22">
@@ -4295,19 +4295,19 @@
         <v>67100</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>54098</v>
+        <v>53396</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>81366</v>
+        <v>81214</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.308527643893439</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2487463239933274</v>
+        <v>0.2455162995939294</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3741259075289095</v>
+        <v>0.3734276159301892</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>69</v>
@@ -4316,19 +4316,19 @@
         <v>73846</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>59293</v>
+        <v>59873</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>87475</v>
+        <v>87460</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3427607781936881</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2752111368429493</v>
+        <v>0.2779037861441563</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4060168787351432</v>
+        <v>0.4059471331241213</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>134</v>
@@ -4337,19 +4337,19 @@
         <v>140946</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>122597</v>
+        <v>120811</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>160492</v>
+        <v>160954</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3255636601929326</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2831809212231768</v>
+        <v>0.2790548062836493</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3707115904490115</v>
+        <v>0.3717796741785895</v>
       </c>
     </row>
     <row r="23">
@@ -4441,19 +4441,19 @@
         <v>19380</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12506</v>
+        <v>12005</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>26895</v>
+        <v>26512</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3146352857236746</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.203027239054408</v>
+        <v>0.1949055259523529</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4366286604923427</v>
+        <v>0.4304212884491807</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>31</v>
@@ -4462,19 +4462,19 @@
         <v>33277</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>23773</v>
+        <v>23557</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>45051</v>
+        <v>45057</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2026753542139865</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1447919296657602</v>
+        <v>0.1434716234703404</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2743833806379634</v>
+        <v>0.2744216902008054</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>51</v>
@@ -4483,19 +4483,19 @@
         <v>52658</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>39705</v>
+        <v>41619</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>65301</v>
+        <v>67675</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2332188755904082</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1758528110945105</v>
+        <v>0.184329352962687</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2892159011931261</v>
+        <v>0.2997299562988314</v>
       </c>
     </row>
     <row r="25">
@@ -4512,19 +4512,19 @@
         <v>34425</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>26710</v>
+        <v>26079</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>41658</v>
+        <v>41586</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5588820616348396</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4336340979868041</v>
+        <v>0.4233904256418742</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6763086525743478</v>
+        <v>0.6751459538503402</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>83</v>
@@ -4533,19 +4533,19 @@
         <v>84913</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>71575</v>
+        <v>70825</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>97486</v>
+        <v>97564</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5171650657872199</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4359281488817293</v>
+        <v>0.4313626938306884</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5937387897128455</v>
+        <v>0.5942144276262422</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>117</v>
@@ -4554,19 +4554,19 @@
         <v>119339</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>104812</v>
+        <v>103409</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>137741</v>
+        <v>134539</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5285457797377425</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4642080103093478</v>
+        <v>0.4579930615539614</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6100471606568595</v>
+        <v>0.5958685135921046</v>
       </c>
     </row>
     <row r="26">
@@ -4583,19 +4583,19 @@
         <v>7791</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3886</v>
+        <v>3870</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>14010</v>
+        <v>13982</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1264826526414859</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06308153613582</v>
+        <v>0.06283193797395183</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2274568807999777</v>
+        <v>0.2269919919610226</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>42</v>
@@ -4604,19 +4604,19 @@
         <v>45999</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>34905</v>
+        <v>35924</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>58733</v>
+        <v>58718</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2801595799987936</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2125906155556744</v>
+        <v>0.2187946429665963</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3577147240758011</v>
+        <v>0.3576236491609199</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>50</v>
@@ -4625,19 +4625,19 @@
         <v>53790</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>40704</v>
+        <v>40443</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>67838</v>
+        <v>67480</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2382353446718492</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1802774206316637</v>
+        <v>0.1791203486678009</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3004533441251476</v>
+        <v>0.2988658582049051</v>
       </c>
     </row>
     <row r="27">
@@ -4729,19 +4729,19 @@
         <v>235777</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>207071</v>
+        <v>208840</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>263492</v>
+        <v>268381</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1755267201643137</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1541558578497789</v>
+        <v>0.1554726571637095</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1961589168726704</v>
+        <v>0.1997991872628092</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>127</v>
@@ -4750,19 +4750,19 @@
         <v>137340</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>117586</v>
+        <v>116078</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>161607</v>
+        <v>162211</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1410920870713539</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1207981790465204</v>
+        <v>0.1192487861801881</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1660221104773947</v>
+        <v>0.1666422872026512</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>352</v>
@@ -4771,19 +4771,19 @@
         <v>373117</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>338655</v>
+        <v>336709</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>409414</v>
+        <v>412422</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1610580918432827</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.146182179507222</v>
+        <v>0.1453424594334707</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.176725866950715</v>
+        <v>0.1780241577964308</v>
       </c>
     </row>
     <row r="29">
@@ -4800,19 +4800,19 @@
         <v>624540</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>584510</v>
+        <v>585374</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>661325</v>
+        <v>661260</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4649450504859917</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4351441532338785</v>
+        <v>0.4357877281272043</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4923296729906195</v>
+        <v>0.4922813710720081</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>441</v>
@@ -4821,19 +4821,19 @@
         <v>475773</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>442250</v>
+        <v>443916</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>506218</v>
+        <v>508764</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4887707481524152</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4543315828225348</v>
+        <v>0.4560426457512523</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5200468636502815</v>
+        <v>0.5226624968077048</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1032</v>
@@ -4842,19 +4842,19 @@
         <v>1100313</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1051376</v>
+        <v>1051734</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1157983</v>
+        <v>1151828</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.474956051999907</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4538322966245132</v>
+        <v>0.4539865326660936</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.499849636113497</v>
+        <v>0.4971926512821527</v>
       </c>
     </row>
     <row r="30">
@@ -4871,19 +4871,19 @@
         <v>482938</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>448593</v>
+        <v>448117</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>522974</v>
+        <v>520432</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3595282293496946</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3339593237290314</v>
+        <v>0.3336047667214257</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3893330375768971</v>
+        <v>0.3874405917139154</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>327</v>
@@ -4892,19 +4892,19 @@
         <v>360294</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>327773</v>
+        <v>327477</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>390034</v>
+        <v>390271</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.370137164776231</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.336727268808499</v>
+        <v>0.336423084345036</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4006887387613536</v>
+        <v>0.4009322655918853</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>771</v>
@@ -4913,19 +4913,19 @@
         <v>843233</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>791806</v>
+        <v>792184</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>890669</v>
+        <v>890246</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3639858561568104</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3417871820950049</v>
+        <v>0.3419504867938263</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3844618431978562</v>
+        <v>0.3842792919032808</v>
       </c>
     </row>
     <row r="31">
@@ -5259,19 +5259,19 @@
         <v>18083</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11076</v>
+        <v>10807</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27304</v>
+        <v>27547</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1718263626198308</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1052506805197283</v>
+        <v>0.1026943932943938</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2594512852079469</v>
+        <v>0.2617599959350831</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -5280,19 +5280,19 @@
         <v>9972</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4904</v>
+        <v>5136</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16525</v>
+        <v>16983</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1521119594392512</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07481188265951398</v>
+        <v>0.07834924652708906</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2520892458571194</v>
+        <v>0.2590706134453391</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -5301,19 +5301,19 @@
         <v>28054</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18698</v>
+        <v>17996</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38941</v>
+        <v>38287</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1642595082447917</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1094773852514567</v>
+        <v>0.1053705224567317</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.228005768058442</v>
+        <v>0.2241768622755283</v>
       </c>
     </row>
     <row r="5">
@@ -5330,19 +5330,19 @@
         <v>40967</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31170</v>
+        <v>30756</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>51449</v>
+        <v>51237</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3892788984825418</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2961898619140905</v>
+        <v>0.2922494935272092</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4888805905027588</v>
+        <v>0.4868637462643237</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>37</v>
@@ -5351,19 +5351,19 @@
         <v>37044</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>28987</v>
+        <v>28704</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>44775</v>
+        <v>44464</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5650949830377284</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4421916959254626</v>
+        <v>0.4378680721747433</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6830279168295929</v>
+        <v>0.6782806268941397</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>76</v>
@@ -5372,19 +5372,19 @@
         <v>78011</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>65635</v>
+        <v>64645</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>91379</v>
+        <v>92631</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4567612714680556</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3843012843558665</v>
+        <v>0.3785027934293148</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5350324142653697</v>
+        <v>0.5423641864710335</v>
       </c>
     </row>
     <row r="6">
@@ -5401,19 +5401,19 @@
         <v>46188</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>34938</v>
+        <v>36700</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>56193</v>
+        <v>56895</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4388947388976274</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3319883404008322</v>
+        <v>0.3487327693749909</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5339636020712015</v>
+        <v>0.5406307588984298</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>18</v>
@@ -5422,19 +5422,19 @@
         <v>18538</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11763</v>
+        <v>11632</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>26409</v>
+        <v>26564</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2827930575230204</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1794377674859826</v>
+        <v>0.177444952194603</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4028534683101</v>
+        <v>0.4052268677513227</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>60</v>
@@ -5443,19 +5443,19 @@
         <v>64726</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>52539</v>
+        <v>51405</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>78633</v>
+        <v>77683</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3789792202871528</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3076243253207395</v>
+        <v>0.3009795439603724</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4604029036411786</v>
+        <v>0.4548421826817484</v>
       </c>
     </row>
     <row r="7">
@@ -5547,19 +5547,19 @@
         <v>17635</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9891</v>
+        <v>10495</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>26212</v>
+        <v>26540</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1703750989246669</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09555872676117044</v>
+        <v>0.1013967593920968</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2532411571562402</v>
+        <v>0.2564082747669498</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>18</v>
@@ -5568,19 +5568,19 @@
         <v>18094</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>11469</v>
+        <v>11980</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>26378</v>
+        <v>27561</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1863013928607128</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1180876807154572</v>
+        <v>0.1233499009353836</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2716019999376052</v>
+        <v>0.2837806710599918</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>33</v>
@@ -5589,19 +5589,19 @@
         <v>35729</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>24407</v>
+        <v>25705</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>47812</v>
+        <v>48164</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1780847420077183</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1216544735171897</v>
+        <v>0.1281243855279535</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2383111360224902</v>
+        <v>0.240065052748411</v>
       </c>
     </row>
     <row r="9">
@@ -5618,19 +5618,19 @@
         <v>48704</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>37985</v>
+        <v>37738</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>59001</v>
+        <v>58938</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4705323814985025</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.366978960631956</v>
+        <v>0.3645913359519625</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5700134790553156</v>
+        <v>0.5694047565940934</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>41</v>
@@ -5639,19 +5639,19 @@
         <v>42064</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>32746</v>
+        <v>32997</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>51790</v>
+        <v>52613</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4331087242846345</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3371688322811238</v>
+        <v>0.3397519273599887</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5332567030326875</v>
+        <v>0.5417221078196138</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>86</v>
@@ -5660,19 +5660,19 @@
         <v>90767</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>76963</v>
+        <v>76415</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>105750</v>
+        <v>106493</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4524162371437653</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3836097421518141</v>
+        <v>0.3808792934728385</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5270960117518237</v>
+        <v>0.530797813741798</v>
       </c>
     </row>
     <row r="10">
@@ -5689,19 +5689,19 @@
         <v>37169</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28030</v>
+        <v>27448</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47798</v>
+        <v>47902</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3590925195768306</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2708003566641403</v>
+        <v>0.2651733994806783</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4617814329331893</v>
+        <v>0.4627848427688812</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -5710,19 +5710,19 @@
         <v>36963</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27671</v>
+        <v>27451</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46234</v>
+        <v>47410</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3805898828546527</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2849149938610648</v>
+        <v>0.2826511987025122</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4760438584806015</v>
+        <v>0.4881569104253957</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>69</v>
@@ -5731,19 +5731,19 @@
         <v>74132</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>61689</v>
+        <v>59717</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>89410</v>
+        <v>87457</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3694990208485164</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3074798521081786</v>
+        <v>0.2976524736251329</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4456516977659617</v>
+        <v>0.4359186847834086</v>
       </c>
     </row>
     <row r="11">
@@ -5835,19 +5835,19 @@
         <v>25243</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16224</v>
+        <v>16742</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>37240</v>
+        <v>37341</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1170156176138609</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07520812922162023</v>
+        <v>0.07761103195429965</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1726305344004171</v>
+        <v>0.1730982239394366</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -5856,19 +5856,19 @@
         <v>6543</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2306</v>
+        <v>2756</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12893</v>
+        <v>13073</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1246234700154516</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04392416967535399</v>
+        <v>0.05249619299113975</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2455676453200746</v>
+        <v>0.2489964097260166</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>28</v>
@@ -5877,19 +5877,19 @@
         <v>31786</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>21856</v>
+        <v>21823</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>43683</v>
+        <v>44651</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1185048053592828</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08148527321894904</v>
+        <v>0.08136210024986197</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.162860076992497</v>
+        <v>0.1664707642934517</v>
       </c>
     </row>
     <row r="13">
@@ -5906,19 +5906,19 @@
         <v>102266</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>87736</v>
+        <v>87665</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>116958</v>
+        <v>117170</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4740680312026986</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.406711905788431</v>
+        <v>0.4063822691760389</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5421704586935884</v>
+        <v>0.5431536039377806</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -5927,19 +5927,19 @@
         <v>25627</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17856</v>
+        <v>18353</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33219</v>
+        <v>32702</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4881081139765543</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3400873716594758</v>
+        <v>0.3495635682242924</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6327119810396347</v>
+        <v>0.6228590512087299</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>121</v>
@@ -5948,19 +5948,19 @@
         <v>127894</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>110651</v>
+        <v>111977</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>144565</v>
+        <v>145280</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4768162863091152</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4125310932147944</v>
+        <v>0.4174740751550811</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5389693211880877</v>
+        <v>0.5416357065223091</v>
       </c>
     </row>
     <row r="14">
@@ -5977,19 +5977,19 @@
         <v>88212</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>73111</v>
+        <v>73143</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>102360</v>
+        <v>103005</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4089163511834405</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.338915138613442</v>
+        <v>0.3390610501338109</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4745006942735499</v>
+        <v>0.477490649380628</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>19</v>
@@ -5998,19 +5998,19 @@
         <v>20333</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13576</v>
+        <v>13172</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28022</v>
+        <v>27706</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3872684160079941</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2585756764852313</v>
+        <v>0.250874148531354</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5337150980302517</v>
+        <v>0.527696131735956</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>100</v>
@@ -6019,19 +6019,19 @@
         <v>108545</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>93191</v>
+        <v>92758</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>126239</v>
+        <v>125317</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.404678908331602</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3474384557309392</v>
+        <v>0.3458224284900709</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4706488413656549</v>
+        <v>0.4672113867186876</v>
       </c>
     </row>
     <row r="15">
@@ -6123,19 +6123,19 @@
         <v>69227</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>56076</v>
+        <v>55520</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>88252</v>
+        <v>87100</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1635543548871426</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.132483810609969</v>
+        <v>0.1311719249172787</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.20850430703612</v>
+        <v>0.2057810375621757</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>43</v>
@@ -6144,19 +6144,19 @@
         <v>42186</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31024</v>
+        <v>31407</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>54824</v>
+        <v>53774</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.137901226832671</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1014144457639833</v>
+        <v>0.1026665991523443</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1792121448178522</v>
+        <v>0.1757787117792952</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>107</v>
@@ -6165,19 +6165,19 @@
         <v>111413</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>93813</v>
+        <v>93546</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>132779</v>
+        <v>132598</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1527919836059158</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1286558930220831</v>
+        <v>0.1282887501129334</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1820932616530047</v>
+        <v>0.1818449973929807</v>
       </c>
     </row>
     <row r="17">
@@ -6194,19 +6194,19 @@
         <v>201754</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>178888</v>
+        <v>179709</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>222878</v>
+        <v>223863</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.476662969696913</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4226384987343036</v>
+        <v>0.4245782733475168</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5265690561105246</v>
+        <v>0.5288957058187989</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>134</v>
@@ -6215,19 +6215,19 @@
         <v>137207</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>119906</v>
+        <v>120470</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>152900</v>
+        <v>153676</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4485130536332386</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3919572364457685</v>
+        <v>0.3938005000697894</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4998115474715619</v>
+        <v>0.5023454610098568</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>324</v>
@@ -6236,19 +6236,19 @@
         <v>338962</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>310729</v>
+        <v>313097</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>365053</v>
+        <v>365767</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4648531098011009</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4261352124858108</v>
+        <v>0.4293828494973412</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5006346450501086</v>
+        <v>0.5016137343453589</v>
       </c>
     </row>
     <row r="18">
@@ -6265,19 +6265,19 @@
         <v>152283</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>131418</v>
+        <v>131852</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>173650</v>
+        <v>173655</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3597826754159444</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3104878482132487</v>
+        <v>0.3115123950249002</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4102634756097074</v>
+        <v>0.4102747919245614</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>123</v>
@@ -6286,19 +6286,19 @@
         <v>126522</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>110696</v>
+        <v>109338</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>144297</v>
+        <v>144298</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4135857195340903</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3618510736763387</v>
+        <v>0.3574107459797294</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4716898566271285</v>
+        <v>0.4716929447612325</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>268</v>
@@ -6307,19 +6307,19 @@
         <v>278806</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>252802</v>
+        <v>254131</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>305948</v>
+        <v>304459</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3823549065929833</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3466934418599507</v>
+        <v>0.3485167958135471</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4195779033324081</v>
+        <v>0.4175364425333217</v>
       </c>
     </row>
     <row r="19">
@@ -6411,19 +6411,19 @@
         <v>29176</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>19538</v>
+        <v>19241</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>40900</v>
+        <v>41644</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1218887505023687</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08162302673030924</v>
+        <v>0.08038611306289326</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1708713516545869</v>
+        <v>0.1739803937901368</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -6432,19 +6432,19 @@
         <v>21529</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>13770</v>
+        <v>13361</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>31398</v>
+        <v>31252</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1023168350787307</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06544127071353553</v>
+        <v>0.06349960219971498</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1492211781360111</v>
+        <v>0.1485291516330175</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>47</v>
@@ -6453,19 +6453,19 @@
         <v>50704</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>37853</v>
+        <v>38227</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>66024</v>
+        <v>65909</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1127326784559349</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08416062148203124</v>
+        <v>0.08499131741027859</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1467925800280333</v>
+        <v>0.1465370467832663</v>
       </c>
     </row>
     <row r="21">
@@ -6482,19 +6482,19 @@
         <v>126721</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>111291</v>
+        <v>110541</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>143774</v>
+        <v>141656</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5294088940389539</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4649462910316695</v>
+        <v>0.4618121045559488</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6006516839161822</v>
+        <v>0.5918047673125281</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>93</v>
@@ -6503,19 +6503,19 @@
         <v>96635</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>82274</v>
+        <v>82361</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>110877</v>
+        <v>111824</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4592677251708386</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3910137007935348</v>
+        <v>0.3914253302982002</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5269529712493461</v>
+        <v>0.5314512214007088</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>210</v>
@@ -6524,19 +6524,19 @@
         <v>223356</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>202777</v>
+        <v>203197</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>245305</v>
+        <v>246818</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4965956725592663</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4508409406086958</v>
+        <v>0.4517747153306611</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5453956959619417</v>
+        <v>0.5487592482676922</v>
       </c>
     </row>
     <row r="22">
@@ -6553,19 +6553,19 @@
         <v>83466</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>69269</v>
+        <v>68476</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>99401</v>
+        <v>100144</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3487023554586775</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2893885114020381</v>
+        <v>0.2860743502714268</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4152723329767146</v>
+        <v>0.4183775014083958</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>89</v>
@@ -6574,19 +6574,19 @@
         <v>92248</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>78163</v>
+        <v>78672</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>107357</v>
+        <v>108145</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4384154397504307</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3714775780384018</v>
+        <v>0.3738944591751025</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5102250413040058</v>
+        <v>0.5139674518254875</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>166</v>
@@ -6595,19 +6595,19 @@
         <v>175714</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>154287</v>
+        <v>154719</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>197140</v>
+        <v>197199</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3906716489847988</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3430313974273465</v>
+        <v>0.3439926057923104</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4383084558438085</v>
+        <v>0.4384386170618227</v>
       </c>
     </row>
     <row r="23">
@@ -6699,19 +6699,19 @@
         <v>16322</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9969</v>
+        <v>10169</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>25049</v>
+        <v>24883</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2298735841235205</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1404028210844926</v>
+        <v>0.1432133311135526</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3527822655146242</v>
+        <v>0.3504480064061406</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>25</v>
@@ -6720,19 +6720,19 @@
         <v>24961</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>16379</v>
+        <v>16833</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>34562</v>
+        <v>34071</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1477078260147611</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09692538463924004</v>
+        <v>0.0996083275123146</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2045247784593485</v>
+        <v>0.2016158717564485</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>40</v>
@@ -6741,19 +6741,19 @@
         <v>41283</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>30789</v>
+        <v>30102</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>54416</v>
+        <v>53490</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1720171714555194</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1282919775094826</v>
+        <v>0.1254269710233477</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2267388302925764</v>
+        <v>0.2228831497153513</v>
       </c>
     </row>
     <row r="25">
@@ -6770,19 +6770,19 @@
         <v>48409</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>40217</v>
+        <v>39864</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>55660</v>
+        <v>55875</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6817773231123387</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5664042612172701</v>
+        <v>0.5614350198627496</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7839064021196976</v>
+        <v>0.786930422127242</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>84</v>
@@ -6791,19 +6791,19 @@
         <v>86593</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>72996</v>
+        <v>73838</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>99658</v>
+        <v>99837</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5124192568169273</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4319586966230379</v>
+        <v>0.4369368665152224</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5897280625772753</v>
+        <v>0.5907879262482499</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>131</v>
@@ -6812,19 +6812,19 @@
         <v>135002</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>118291</v>
+        <v>118509</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>149932</v>
+        <v>149989</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.562525089605624</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.492893439321788</v>
+        <v>0.4938020102822708</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6247330865432563</v>
+        <v>0.6249740802613275</v>
       </c>
     </row>
     <row r="26">
@@ -6841,19 +6841,19 @@
         <v>6273</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2927</v>
+        <v>2169</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>13041</v>
+        <v>12165</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.08834909276414081</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0412225079379276</v>
+        <v>0.03054913463882057</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1836602529510223</v>
+        <v>0.171323471987707</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>52</v>
@@ -6862,19 +6862,19 @@
         <v>57435</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>44941</v>
+        <v>44304</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>71019</v>
+        <v>69636</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3398729171683116</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2659425964158432</v>
+        <v>0.2621721500325806</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4202597598059551</v>
+        <v>0.4120712317049545</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>58</v>
@@ -6883,19 +6883,19 @@
         <v>63708</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>49506</v>
+        <v>50209</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>77924</v>
+        <v>78388</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2654577389388566</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2062828352843923</v>
+        <v>0.2092097584207873</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3246939467509121</v>
+        <v>0.326626621677985</v>
       </c>
     </row>
     <row r="27">
@@ -6987,19 +6987,19 @@
         <v>175685</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>151235</v>
+        <v>152073</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>201485</v>
+        <v>202455</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1517011571070075</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1305895379205305</v>
+        <v>0.131312563276013</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1739790538593269</v>
+        <v>0.1748169471441756</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>123</v>
@@ -7008,19 +7008,19 @@
         <v>123284</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>102790</v>
+        <v>105396</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>144968</v>
+        <v>144889</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1369072363717772</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1141488213735626</v>
+        <v>0.11704217979521</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1609868426636065</v>
+        <v>0.1608995534570556</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>280</v>
@@ -7029,19 +7029,19 @@
         <v>298969</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>267026</v>
+        <v>269130</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>333864</v>
+        <v>334203</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1452298137045403</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1297127210626009</v>
+        <v>0.1307352207752678</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.162180909207727</v>
+        <v>0.162345382330629</v>
       </c>
     </row>
     <row r="29">
@@ -7058,19 +7058,19 @@
         <v>568821</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>534282</v>
+        <v>534667</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>605219</v>
+        <v>602455</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4911685107853102</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4613449321679641</v>
+        <v>0.4616773903795225</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5225982091491265</v>
+        <v>0.5202108435925992</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>414</v>
@@ -7079,19 +7079,19 @@
         <v>425171</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>397700</v>
+        <v>394990</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>457102</v>
+        <v>453545</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4721528630872276</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4416464922533834</v>
+        <v>0.4386368962708019</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5076124031934357</v>
+        <v>0.5036615423456181</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>948</v>
@@ -7100,19 +7100,19 @@
         <v>993992</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>949381</v>
+        <v>948492</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1038752</v>
+        <v>1039752</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4828504463264693</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4611795860379969</v>
+        <v>0.4607481407150315</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5045936246770855</v>
+        <v>0.5050793748453644</v>
       </c>
     </row>
     <row r="30">
@@ -7129,19 +7129,19 @@
         <v>413592</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>380921</v>
+        <v>380171</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>447685</v>
+        <v>446859</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3571303321076822</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3289200149823802</v>
+        <v>0.3282724221403041</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.386569118757774</v>
+        <v>0.3858561278056794</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>335</v>
@@ -7150,19 +7150,19 @@
         <v>352039</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>321722</v>
+        <v>324321</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>381284</v>
+        <v>380309</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3909399005409953</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3572726392827607</v>
+        <v>0.3601582612404701</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4234159586793076</v>
+        <v>0.4223338063547985</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>721</v>
@@ -7171,19 +7171,19 @@
         <v>765631</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>721329</v>
+        <v>720091</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>811076</v>
+        <v>806126</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3719197399689904</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3503993972432118</v>
+        <v>0.349797844990093</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3939957101685579</v>
+        <v>0.3915911232393611</v>
       </c>
     </row>
     <row r="31">
